--- a/docs/mcode/onco-core-GenomicsReport.xlsx
+++ b/docs/mcode/onco-core-GenomicsReport.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="349">
   <si>
     <t>Path</t>
   </si>
@@ -150,7 +150,10 @@
     <t>onco-core-GenomicsReport</t>
   </si>
   <si>
-    <t>Genetic analysis summary report</t>
+    <t>Genetic analysis summary report. The report may include one or more tests, with two distinct test types. The first type is a targeted mutation test, where a specific mutation on a specific gene is tested for. The result is either positive or negative for that mutation. The second type is a more general test for variants. This type of test returns the identity of variants found in a certain region of the genome.
+The identity of laboratory tests is typically represented by a LOINC code. However, many genetic tests and panels do not have LOINC codes, although some might have an identifier in NCBI Genetic Testing Registry (GTR), a central location for voluntary submission of genetic test information by providers. To identify the diagnostic report, the name of the report must be in the text sub-field of the code structure. If there is a coded identifier from GTR, LOINC, or other source, then it should be included into the the code sub-field of the code structure. If there is no suitable code, the code can be omitted.
+The performer of the test (organization or practitioner) should be included in the FHIR profile as the performer.actor.
+FHIR implementation note: The category for this profile is set to GE (Genetics), a code from http://hl7.org/fhir/ValueSet/diagnostic-service-sections. This may be contrary to the Argonaut specification, which assigns the category LAB to any diagnostic report containing a laboratory result.</t>
   </si>
   <si>
     <t>This is intended to capture a single report, and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
@@ -311,6 +314,98 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>specimentype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SpecimenType-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The type of material the specimen contains or consists of.</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SpecimenType-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/onco/core/vs/GeneticSpecimenTypeVS</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>regionstudied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-RegionStudied-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A description of the coverage of the genome that was tested for variants.</t>
+  </si>
+  <si>
     <t>DiagnosticReport.modifierExtension</t>
   </si>
   <si>
@@ -380,10 +475,6 @@
 Sub-departmentservicediscipline</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>Service category</t>
   </si>
   <si>
@@ -412,9 +503,6 @@
   </si>
   <si>
     <t>DiagnosticReport.category.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
   </si>
   <si>
     <t>unique id for the element within a resource (for internal references).</t>
@@ -452,9 +540,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
@@ -485,7 +570,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/observation-category"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://terminology.hl7.org/CodeSystem/v2-0074"/&gt;</t>
   </si>
   <si>
     <t>C*E.3</t>
@@ -495,10 +580,6 @@
   </si>
   <si>
     <t>DiagnosticReport.category.coding.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -613,10 +694,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+    <t>https://www.ncbi.nlm.nih.gov/gtr</t>
   </si>
   <si>
     <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
@@ -626,51 +704,6 @@
   </si>
   <si>
     <t>what</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding</t>
-  </si>
-  <si>
-    <t>Fixed_81247-9</t>
-  </si>
-  <si>
-    <t>Master HL7 genetic variant reporting panel</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding.system</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://loinc.org"/&gt;</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding.version</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding.code</t>
-  </si>
-  <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="81247-9"/&gt;</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding.display</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.text</t>
   </si>
   <si>
     <t>DiagnosticReport.subject</t>
@@ -874,7 +907,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-GeneticRegionAnalyzed]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
 </t>
   </si>
   <si>
@@ -887,10 +920,40 @@
     <t>Need to support individual results, or report groups of results, where the result grouping is arbitrary, but meaningful. This structure is recursive - observations can contain observations.</t>
   </si>
   <si>
+    <t xml:space="preserve">profile:target.reference}
+</t>
+  </si>
+  <si>
     <t>OBXs</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=COMP].target</t>
+  </si>
+  <si>
+    <t>onco-core-GeneticVariantFound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-GeneticVariantFound]]}
+</t>
+  </si>
+  <si>
+    <t>GeneticVariantFound</t>
+  </si>
+  <si>
+    <t>Data structure recording an alteration in the most common DNA nucleotide sequence. The term variant can be used to describe an alteration that may be benign, pathogenic, or of unknown significance. The term variant is increasingly being used in place of the term mutation.</t>
+  </si>
+  <si>
+    <t>onco-core-GeneticMutationTestResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-GeneticMutationTestResult]]}
+</t>
+  </si>
+  <si>
+    <t>GeneticMutationTestResult</t>
+  </si>
+  <si>
+    <t>A test for a specific mutation on a particular gene.</t>
   </si>
   <si>
     <t>DiagnosticReport.imagingStudy</t>
@@ -1196,7 +1259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM56"/>
+  <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1205,8 +1268,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.32421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.21484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.87109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.34375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="60.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1229,13 +1292,13 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="47.3984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.9453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.96484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.82421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="24.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="25.7109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -2159,16 +2222,14 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
@@ -2191,42 +2252,40 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="C10" t="s" s="2">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2274,11 +2333,15 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2289,7 +2352,7 @@
         <v>42</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>42</v>
@@ -2297,18 +2360,18 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>42</v>
@@ -2317,21 +2380,19 @@
         <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
-        <v>102</v>
-      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2378,11 +2439,15 @@
       <c r="AD11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2390,18 +2455,18 @@
         <v>42</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>104</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2409,35 +2474,31 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>109</v>
-      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2461,34 +2522,38 @@
         <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG12" s="2"/>
+      <c r="AG12" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2496,22 +2561,22 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>113</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2527,27 +2592,25 @@
         <v>42</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>42</v>
@@ -2565,13 +2628,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2589,10 +2652,10 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>50</v>
@@ -2604,18 +2667,18 @@
         <v>42</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2623,7 +2686,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>50</v>
@@ -2638,13 +2701,13 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2671,13 +2734,11 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -2694,11 +2755,15 @@
       <c r="AD14" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE14" s="2"/>
+      <c r="AE14" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG14" s="2"/>
+      <c r="AG14" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH14" t="s" s="2">
         <v>42</v>
       </c>
@@ -2709,7 +2774,7 @@
         <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>42</v>
@@ -2717,11 +2782,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="C15" t="s" s="2">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2740,17 +2807,13 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="K15" s="2"/>
       <c r="L15" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>42</v>
@@ -2798,11 +2861,15 @@
       <c r="AD15" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE15" s="2"/>
+      <c r="AE15" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG15" s="2"/>
+      <c r="AG15" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH15" t="s" s="2">
         <v>42</v>
       </c>
@@ -2813,7 +2880,7 @@
         <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>42</v>
@@ -2821,15 +2888,15 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>41</v>
@@ -2838,26 +2905,24 @@
         <v>42</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>42</v>
       </c>
@@ -2893,14 +2958,16 @@
         <v>42</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" t="s" s="2">
@@ -2914,10 +2981,10 @@
         <v>42</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>42</v>
@@ -2925,20 +2992,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>42</v>
@@ -2950,14 +3015,18 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3016,18 +3085,18 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3035,7 +3104,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>50</v>
@@ -3044,22 +3113,26 @@
         <v>42</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3083,13 +3156,13 @@
         <v>42</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>42</v>
@@ -3118,29 +3191,29 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
@@ -3149,19 +3222,19 @@
         <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3187,13 +3260,13 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3210,11 +3283,15 @@
       <c r="AD19" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE19" s="2"/>
+      <c r="AE19" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG19" s="2"/>
+      <c r="AG19" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3222,18 +3299,18 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>42</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3253,29 +3330,25 @@
         <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>42</v>
@@ -3328,10 +3401,10 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>42</v>
@@ -3339,18 +3412,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>42</v>
@@ -3359,19 +3432,19 @@
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3432,10 +3505,10 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>42</v>
@@ -3443,7 +3516,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3451,10 +3524,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>42</v>
@@ -3466,7 +3539,7 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>161</v>
@@ -3474,16 +3547,18 @@
       <c r="L22" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>42</v>
@@ -3513,16 +3588,14 @@
         <v>42</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AE22" s="2"/>
       <c r="AF22" t="s" s="2">
@@ -3536,10 +3609,10 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -3547,15 +3620,17 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>50</v>
@@ -3570,18 +3645,14 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="K23" s="2"/>
       <c r="L23" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>170</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3640,10 +3711,10 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -3651,7 +3722,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3671,23 +3742,19 @@
         <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3746,10 +3813,10 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>42</v>
@@ -3757,18 +3824,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
@@ -3777,23 +3844,21 @@
         <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -3852,10 +3917,10 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -3863,7 +3928,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3871,7 +3936,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>50</v>
@@ -3886,22 +3951,26 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>42</v>
@@ -3919,13 +3988,13 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -3954,18 +4023,18 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>196</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3985,18 +4054,20 @@
         <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
@@ -4056,10 +4127,10 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4067,18 +4138,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4087,27 +4158,27 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>42</v>
@@ -4160,10 +4231,10 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>42</v>
@@ -4171,7 +4242,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4179,10 +4250,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4194,19 +4265,17 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4243,14 +4312,16 @@
         <v>42</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AB29" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="AE29" s="2"/>
       <c r="AF29" t="s" s="2">
@@ -4264,10 +4335,10 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4275,17 +4346,15 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>50</v>
@@ -4300,16 +4369,20 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="M30" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4368,10 +4441,10 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -4379,7 +4452,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4399,19 +4472,23 @@
         <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4470,51 +4547,49 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -4539,13 +4614,11 @@
         <v>42</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>42</v>
@@ -4574,26 +4647,26 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>50</v>
@@ -4608,26 +4681,24 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>42</v>
@@ -4680,18 +4751,18 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>42</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4714,17 +4785,15 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -4784,32 +4853,32 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>42</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>42</v>
@@ -4818,24 +4887,26 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="N35" t="s" s="2">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>42</v>
@@ -4888,26 +4959,26 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>42</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>50</v>
@@ -4922,17 +4993,19 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="N36" t="s" s="2">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -4992,32 +5065,32 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>42</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>42</v>
@@ -5026,19 +5099,19 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>176</v>
+        <v>261</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5098,18 +5171,18 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>42</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5120,7 +5193,7 @@
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5129,22 +5202,22 @@
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>154</v>
+        <v>268</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5204,10 +5277,10 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>186</v>
+        <v>273</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>187</v>
+        <v>274</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5215,18 +5288,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5235,20 +5308,22 @@
         <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5308,50 +5383,52 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>220</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5387,16 +5464,14 @@
         <v>42</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AE40" s="2"/>
       <c r="AF40" t="s" s="2">
@@ -5410,54 +5485,52 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>226</v>
+        <v>290</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>227</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="C41" t="s" s="2">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5504,11 +5577,15 @@
       <c r="AD41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE41" s="2"/>
+      <c r="AE41" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" s="2"/>
+      <c r="AG41" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5516,54 +5593,52 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>237</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="C42" t="s" s="2">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5610,11 +5685,15 @@
       <c r="AD42" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE42" s="2"/>
+      <c r="AE42" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG42" s="2"/>
+      <c r="AG42" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5622,54 +5701,52 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>247</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -5728,22 +5805,22 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>257</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5759,22 +5836,20 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -5834,10 +5909,10 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -5845,7 +5920,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5856,7 +5931,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
@@ -5868,20 +5943,16 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>267</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>268</v>
+        <v>101</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>42</v>
       </c>
@@ -5940,22 +6011,22 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>274</v>
+        <v>89</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -5965,7 +6036,7 @@
         <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>42</v>
@@ -5974,18 +6045,18 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>276</v>
+        <v>91</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6044,10 +6115,10 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>279</v>
+        <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>280</v>
+        <v>156</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6055,11 +6126,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6072,22 +6143,22 @@
         <v>42</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>282</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>283</v>
+        <v>124</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>285</v>
+        <v>93</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6151,7 +6222,7 @@
         <v>42</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>286</v>
+        <v>87</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6159,18 +6230,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>288</v>
+        <v>42</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>42</v>
@@ -6179,20 +6250,22 @@
         <v>42</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>289</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="N48" t="s" s="2">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -6252,10 +6325,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6263,7 +6336,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6271,7 +6344,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>50</v>
@@ -6283,16 +6356,16 @@
         <v>42</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>52</v>
+        <v>324</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>127</v>
+        <v>325</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>128</v>
+        <v>326</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6357,7 +6430,7 @@
         <v>42</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>129</v>
+        <v>327</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6365,18 +6438,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>89</v>
+        <v>329</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
@@ -6388,18 +6461,20 @@
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>91</v>
+        <v>330</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>131</v>
+        <v>331</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6458,10 +6533,10 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>129</v>
+        <v>335</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6469,11 +6544,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>297</v>
+        <v>42</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6486,23 +6561,21 @@
         <v>42</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>95</v>
+        <v>337</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -6527,13 +6600,13 @@
         <v>42</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>42</v>
@@ -6562,10 +6635,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>87</v>
+        <v>341</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6573,7 +6646,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6584,7 +6657,7 @@
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -6596,19 +6669,19 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>154</v>
+        <v>343</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -6668,433 +6741,17 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE53" s="2"/>
-      <c r="AF53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG53" s="2"/>
-      <c r="AH53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE54" s="2"/>
-      <c r="AF54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG54" s="2"/>
-      <c r="AH54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE55" s="2"/>
-      <c r="AF55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG55" s="2"/>
-      <c r="AH55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE56" s="2"/>
-      <c r="AF56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG56" s="2"/>
-      <c r="AH56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AL56" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL56">
+  <autoFilter ref="A1:AL52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7104,7 +6761,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI55">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/mcode/onco-core-GenomicsReport.xlsx
+++ b/docs/mcode/onco-core-GenomicsReport.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$50</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="325">
   <si>
     <t>Path</t>
   </si>
@@ -151,9 +151,10 @@
   </si>
   <si>
     <t>Genetic analysis summary report. The report may include one or more tests, with two distinct test types. The first type is a targeted mutation test, where a specific mutation on a specific gene is tested for. The result is either positive or negative for that mutation. The second type is a more general test for variants. This type of test returns the identity of variants found in a certain region of the genome.
-The identity of laboratory tests is typically represented by a LOINC code. However, many genetic tests and panels do not have LOINC codes, although some might have an identifier in NCBI Genetic Testing Registry (GTR), a central location for voluntary submission of genetic test information by providers. To identify the diagnostic report, the name of the report must be in the text sub-field of the code structure. If there is a coded identifier from GTR, LOINC, or other source, then it should be included into the the code sub-field of the code structure. If there is no suitable code, the code can be omitted.
-The performer of the test (organization or practitioner) should be included in the FHIR profile as the performer.actor.
-FHIR implementation note: The category for this profile is set to GE (Genetics), a code from http://hl7.org/fhir/ValueSet/diagnostic-service-sections. This may be contrary to the Argonaut specification, which assigns the category LAB to any diagnostic report containing a laboratory result.</t>
+The identity of non-genomic laboratory tests is typically represented by a LOINC code. However, many genetic tests and panels do not have LOINC codes, although some might have an identifier in NCBI Genetic Testing Registry (GTR), a central location for voluntary submission of genetic test information by providers. To identify the diagnostic report, the name of the report must be in the text sub-field of the code structure. If there is a coded identifier from GTR, LOINC, or other source, then it should be included into the the code sub-field of the code structure. If there is no suitable code, the code can be omitted.
+Conformance note: To be conformant to US Core, the code attribute must be a LOINC code, if available. If there is no suitable code in LOINC, then a code from an alternative code system (such as GTR) can be used.
+Implementation note: The performer of the test (organization or practitioner) should be included in the FHIR profile as the performer.actor.
+Conformance note: The category for this profile is set to GE (Genetics), a code from http://hl7.org/fhir/ValueSet/diagnostic-service-sections. This is contrary to the [Argonaut](http://www.fhir.org/guides/argonaut/r2/) and [US Core](http://hl7.org/fhir/us/core/STU3/index.html) specifications, which require the category 'LAB' in diagnostic reports containing laboratory results. This is assumed to be an oversight in the US Core and Argonaut specifications.</t>
   </si>
   <si>
     <t>This is intended to capture a single report, and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
@@ -177,7 +178,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -193,7 +194,7 @@
     <t>DiagnosticReport.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -203,13 +204,146 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
+    <t>DiagnosticReport.meta.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-SourceSystem-extension}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
     <t>DiagnosticReport.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -222,7 +356,7 @@
     <t>DiagnosticReport.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -251,7 +385,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -278,7 +412,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -297,34 +431,33 @@
     <t>DiagnosticReport.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>resultsinterpreter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-ResultsInterpreter-extension}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>The practitioner or organization that is responsible for the report's conclusions and interpretations.</t>
+  </si>
+  <si>
+    <t>basedon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-BasedOn-extension}
 </t>
   </si>
   <si>
-    <t>open</t>
+    <t>The proposal, order, or plan that is partly or wholly fulfilled by this item.</t>
   </si>
   <si>
     <t>specimentype</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SpecimenType-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-SpecimenType-extension}
 </t>
   </si>
   <si>
@@ -334,63 +467,47 @@
     <t>DiagnosticReport.extension.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension.extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition should be version specific.  This will ideally be the URI for the Resource Profile defining the extension, with the code for the extension after a #.</t>
+  </si>
+  <si>
+    <t>http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-SpecimenType-extension</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SpecimenType-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.extension.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>Value of extension</t>
   </si>
   <si>
     <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/mcode/onco/core/vs/GeneticSpecimenTypeVS</t>
+    <t>http://mcodeinitiative.org/us/mcode/ValueSet/onco-core-GeneticSpecimenTypeVS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -399,7 +516,7 @@
     <t>regionstudied</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-RegionStudied-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-RegionStudied-extension}
 </t>
   </si>
   <si>
@@ -422,7 +539,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -484,9 +601,6 @@
     <t>The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes for diagnostic service sections.</t>
   </si>
   <si>
@@ -502,186 +616,6 @@
     <t>class</t>
   </si>
   <si>
-    <t>DiagnosticReport.category.id</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labelled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:code}
-</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Fixed_GE</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://terminology.hl7.org/CodeSystem/v2-0074"/&gt;</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="GE"/&gt;</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
     <t>DiagnosticReport.code</t>
   </si>
   <si>
@@ -691,10 +625,7 @@
     <t>A code or name that describes this diagnostic report.</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/gtr</t>
+    <t>http://mcodeinitiative.org/us/mcode/ValueSet/onco-core-GeneticTestVS</t>
   </si>
   <si>
     <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
@@ -713,14 +644,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Patient)
 </t>
   </si>
   <si>
-    <t>The subject of the report, usually, but not always, the patient</t>
-  </si>
-  <si>
-    <t>The subject of the report. Usually, but not always, this is a patient. However diagnostic services also perform analyses on specimens collected from a variety of other sources.</t>
+    <t>The subject of an observation</t>
+  </si>
+  <si>
+    <t>The subject of an observation.</t>
   </si>
   <si>
     <t>SHALL know the subject context.</t>
@@ -738,7 +669,7 @@
     <t>DiagnosticReport.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -764,8 +695,8 @@
 Effective Time</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>Clinically Relevant time/time-period for report</t>
@@ -796,10 +727,6 @@
 Date publishedDate Issued</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>DateTime this version was released</t>
   </si>
   <si>
@@ -828,7 +755,7 @@
 ServicePractitionerDepartmentCompany</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
+    <t xml:space="preserve">Reference(Practitioner|Organization)
 </t>
   </si>
   <si>
@@ -856,7 +783,7 @@
     <t>DiagnosticReport.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest]]}
+    <t xml:space="preserve">Reference(DiagnosticOrder|ProcedureRequest|ReferralRequest)
 </t>
   </si>
   <si>
@@ -881,7 +808,7 @@
     <t>DiagnosticReport.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Specimen]]}
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -907,7 +834,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
@@ -933,33 +860,33 @@
     <t>onco-core-GeneticVariantFound</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-GeneticVariantFound]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-GeneticVariantFound)
 </t>
   </si>
   <si>
-    <t>GeneticVariantFound</t>
-  </si>
-  <si>
-    <t>Data structure recording an alteration in the most common DNA nucleotide sequence. The term variant can be used to describe an alteration that may be benign, pathogenic, or of unknown significance. The term variant is increasingly being used in place of the term mutation.</t>
-  </si>
-  <si>
-    <t>onco-core-GeneticMutationTestResult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-GeneticMutationTestResult]]}
+    <t>GeneticVariantFound: Records an alteration in the most common DNA nucleotide sequence</t>
+  </si>
+  <si>
+    <t>Records an alteration in the most common DNA nucleotide sequence. The term variant can be used to describe an alteration that may be benign, pathogenic, or of unknown significance. The term variant is increasingly being used in place of the term mutation. When reporting 'Genetic Variant Found', at least one element out of the following must be reported: 'Variant Found Identifier', 'Variant Found HGVS Name', and 'Variant Found Description'.</t>
+  </si>
+  <si>
+    <t>onco-core-GeneticVariantTested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-GeneticVariantTested)
 </t>
   </si>
   <si>
-    <t>GeneticMutationTestResult</t>
-  </si>
-  <si>
-    <t>A test for a specific mutation on a particular gene.</t>
+    <t>GeneticVariantTested: A test for a specific mutation on a particular gene</t>
+  </si>
+  <si>
+    <t>A test for a specific mutation on a particular gene. This profile is used to record whether a single discrete variant tested is present or absent (denoted as positive or negative respectively).</t>
   </si>
   <si>
     <t>DiagnosticReport.imagingStudy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ImagingStudy], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImagingObjectSelection]]}
+    <t xml:space="preserve">Reference(ImagingStudy|ImagingObjectSelection)
 </t>
   </si>
   <si>
@@ -982,7 +909,7 @@
 SlidesScans</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1017,6 +944,10 @@
     <t>DiagnosticReport.image.comment</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
     <t>Comment about the image (e.g. explanation)</t>
   </si>
   <si>
@@ -1035,7 +966,7 @@
     <t>DiagnosticReport.image.link</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Media]]}
+    <t xml:space="preserve">Reference(Media)
 </t>
   </si>
   <si>
@@ -1094,7 +1025,7 @@
     <t>DiagnosticReport.presentedForm</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -1163,67 +1094,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1259,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AL50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1269,7 +1200,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="46.87109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.34375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.1796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="60.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1278,7 +1209,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1291,14 +1222,14 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="47.3984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.96484375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.82421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.82421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="25.7109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="30.91015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -1753,23 +1684,21 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>64</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -1832,7 +1761,7 @@
         <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>42</v>
@@ -1840,18 +1769,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -1898,28 +1827,26 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" s="2"/>
+      <c r="AC6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" t="s" s="2">
@@ -1936,7 +1863,7 @@
         <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>42</v>
@@ -1944,11 +1871,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1967,17 +1896,13 @@
         <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="K7" s="2"/>
       <c r="L7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>42</v>
@@ -2025,13 +1950,17 @@
       <c r="AD7" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>64</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2040,7 +1969,7 @@
         <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -2048,18 +1977,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2068,19 +1997,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2144,7 +2073,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2152,18 +2081,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>42</v>
@@ -2172,19 +2101,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2222,14 +2151,16 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
@@ -2246,19 +2177,17 @@
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2267,25 +2196,29 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="L10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2333,15 +2266,11 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>88</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2360,7 +2289,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2371,7 +2300,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>42</v>
@@ -2380,18 +2309,20 @@
         <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2416,13 +2347,13 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>42</v>
@@ -2439,15 +2370,11 @@
       <c r="AD11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2458,7 +2385,7 @@
         <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>42</v>
@@ -2466,7 +2393,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2477,7 +2404,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>42</v>
@@ -2486,18 +2413,20 @@
         <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -2522,10 +2451,10 @@
         <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="Y12" t="s" s="2">
         <v>42</v>
@@ -2545,15 +2474,11 @@
       <c r="AD12" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>107</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2572,7 +2497,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2580,7 +2505,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>50</v>
@@ -2589,28 +2514,30 @@
         <v>42</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>42</v>
@@ -2651,15 +2578,11 @@
       <c r="AD13" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE13" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG13" s="2"/>
       <c r="AH13" t="s" s="2">
         <v>42</v>
       </c>
@@ -2670,7 +2593,7 @@
         <v>42</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>42</v>
@@ -2678,7 +2601,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2686,7 +2609,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>50</v>
@@ -2701,15 +2624,17 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>42</v>
@@ -2734,11 +2659,13 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="Y14" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -2755,15 +2682,11 @@
       <c r="AD14" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE14" t="s" s="2">
-        <v>119</v>
-      </c>
+      <c r="AE14" s="2"/>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG14" s="2"/>
       <c r="AH14" t="s" s="2">
         <v>42</v>
       </c>
@@ -2774,7 +2697,7 @@
         <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>42</v>
@@ -2782,20 +2705,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>42</v>
@@ -2807,13 +2728,17 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K15" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="L15" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>42</v>
@@ -2861,17 +2786,13 @@
       <c r="AD15" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE15" t="s" s="2">
-        <v>88</v>
-      </c>
+      <c r="AE15" s="2"/>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG15" s="2"/>
       <c r="AH15" t="s" s="2">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>42</v>
@@ -2880,7 +2801,7 @@
         <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>42</v>
@@ -2892,7 +2813,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2905,22 +2826,22 @@
         <v>42</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2984,7 +2905,7 @@
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>42</v>
@@ -2992,11 +2913,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3012,21 +2933,21 @@
         <v>42</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
         <v>131</v>
       </c>
+      <c r="M17" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3062,16 +2983,14 @@
         <v>42</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="AE17" s="2"/>
       <c r="AF17" t="s" s="2">
@@ -3085,26 +3004,28 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>133</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>50</v>
@@ -3113,26 +3034,20 @@
         <v>42</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3156,13 +3071,13 @@
         <v>42</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>42</v>
@@ -3179,11 +3094,15 @@
       <c r="AD18" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE18" s="2"/>
+      <c r="AE18" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG18" s="2"/>
+      <c r="AG18" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3191,29 +3110,31 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>142</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="C19" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
@@ -3222,20 +3143,16 @@
         <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
@@ -3260,13 +3177,13 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3284,13 +3201,13 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
@@ -3299,20 +3216,22 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>153</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3324,7 +3243,7 @@
         <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>42</v>
@@ -3333,13 +3252,11 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3389,11 +3306,15 @@
       <c r="AD20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE20" s="2"/>
+      <c r="AE20" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG20" s="2"/>
+      <c r="AG20" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3404,7 +3325,7 @@
         <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>42</v>
@@ -3412,18 +3333,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>42</v>
@@ -3435,17 +3356,15 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3493,11 +3412,15 @@
       <c r="AD21" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE21" s="2"/>
+      <c r="AE21" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG21" s="2"/>
+      <c r="AG21" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3508,7 +3431,7 @@
         <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>42</v>
@@ -3516,18 +3439,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>42</v>
@@ -3536,23 +3459,21 @@
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3588,20 +3509,26 @@
         <v>42</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AE22" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG22" s="2"/>
+      <c r="AG22" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3609,10 +3536,10 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -3620,11 +3547,9 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3642,23 +3567,27 @@
         <v>42</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K23" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>42</v>
@@ -3699,11 +3628,15 @@
       <c r="AD23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE23" s="2"/>
+      <c r="AE23" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="AF23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG23" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3714,7 +3647,7 @@
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -3722,7 +3655,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3730,7 +3663,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>50</v>
@@ -3745,13 +3678,13 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3778,13 +3711,11 @@
         <v>42</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>42</v>
@@ -3801,11 +3732,15 @@
       <c r="AD24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE24" s="2"/>
+      <c r="AE24" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG24" s="2"/>
+      <c r="AG24" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3816,7 +3751,7 @@
         <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>42</v>
@@ -3824,11 +3759,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="C25" t="s" s="2">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3847,17 +3784,13 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -3905,11 +3838,15 @@
       <c r="AD25" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE25" s="2"/>
+      <c r="AE25" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG25" s="2"/>
+      <c r="AG25" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
@@ -3920,7 +3857,7 @@
         <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -3928,49 +3865,47 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>42</v>
@@ -4023,10 +3958,10 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -4034,18 +3969,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -4057,18 +3992,18 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4127,18 +4062,18 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>42</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4146,7 +4081,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>50</v>
@@ -4155,30 +4090,32 @@
         <v>42</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>42</v>
@@ -4196,13 +4133,13 @@
         <v>42</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>42</v>
@@ -4231,26 +4168,26 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>42</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>50</v>
@@ -4265,18 +4202,18 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4300,13 +4237,13 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4323,11 +4260,15 @@
       <c r="AD29" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE29" s="2"/>
+      <c r="AE29" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG29" s="2"/>
+      <c r="AG29" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4335,18 +4276,18 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4354,13 +4295,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>42</v>
@@ -4369,20 +4310,16 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4406,13 +4343,11 @@
         <v>42</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>42</v>
@@ -4441,26 +4376,26 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>42</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>50</v>
@@ -4475,19 +4410,17 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -4535,11 +4468,15 @@
       <c r="AD31" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE31" s="2"/>
+      <c r="AE31" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="AF31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG31" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4547,18 +4484,18 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4566,13 +4503,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>42</v>
@@ -4581,13 +4518,13 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4614,11 +4551,13 @@
         <v>42</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>42</v>
@@ -4647,22 +4586,22 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4672,7 +4611,7 @@
         <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>42</v>
@@ -4681,17 +4620,19 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N33" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4751,26 +4692,26 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
@@ -4785,16 +4726,20 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
@@ -4853,22 +4798,22 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4887,19 +4832,19 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -4959,29 +4904,29 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
@@ -4990,22 +4935,22 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5065,53 +5010,53 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>256</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5171,22 +5116,22 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>266</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5196,7 +5141,7 @@
         <v>41</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>42</v>
@@ -5205,19 +5150,17 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5254,16 +5197,14 @@
         <v>42</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="AE38" s="2"/>
       <c r="AF38" t="s" s="2">
@@ -5277,22 +5218,24 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="C39" t="s" s="2">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5302,7 +5245,7 @@
         <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>42</v>
@@ -5311,20 +5254,16 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5371,11 +5310,15 @@
       <c r="AD39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE39" s="2"/>
+      <c r="AE39" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5383,22 +5326,24 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="C40" t="s" s="2">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5417,18 +5362,16 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5464,20 +5407,26 @@
         <v>42</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AB40" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AE40" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5485,24 +5434,22 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5512,7 +5459,7 @@
         <v>41</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>42</v>
@@ -5521,15 +5468,17 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5577,15 +5526,11 @@
       <c r="AD41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE41" t="s" s="2">
-        <v>282</v>
-      </c>
+      <c r="AE41" s="2"/>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG41" s="2"/>
       <c r="AH41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5593,24 +5538,22 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>289</v>
+        <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5620,25 +5563,27 @@
         <v>41</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5685,15 +5630,11 @@
       <c r="AD42" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE42" t="s" s="2">
-        <v>282</v>
-      </c>
+      <c r="AE42" s="2"/>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG42" s="2"/>
       <c r="AH42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5701,10 +5642,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -5712,7 +5653,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5723,7 +5664,7 @@
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
@@ -5735,17 +5676,15 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>300</v>
+        <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>301</v>
+        <v>61</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -5808,7 +5747,7 @@
         <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>304</v>
+        <v>63</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -5816,11 +5755,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>306</v>
+        <v>65</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5836,21 +5775,21 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>307</v>
+        <v>66</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>308</v>
+        <v>67</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -5909,10 +5848,10 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>290</v>
+        <v>63</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -5920,38 +5859,40 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6014,7 +5955,7 @@
         <v>42</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
@@ -6022,18 +5963,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6045,18 +5986,20 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>293</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>91</v>
+        <v>294</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6118,7 +6061,7 @@
         <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>156</v>
+        <v>298</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6126,40 +6069,38 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I47" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>124</v>
+        <v>301</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6222,7 +6163,7 @@
         <v>42</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>87</v>
+        <v>303</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6230,11 +6171,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6253,19 +6194,19 @@
         <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -6325,10 +6266,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6336,7 +6277,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6344,10 +6285,10 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>42</v>
@@ -6356,16 +6297,16 @@
         <v>42</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>324</v>
+        <v>152</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6392,13 +6333,13 @@
         <v>42</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>42</v>
@@ -6427,10 +6368,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6438,18 +6379,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>329</v>
+        <v>42</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
@@ -6461,19 +6402,19 @@
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>100</v>
+        <v>319</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -6533,225 +6474,17 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE51" s="2"/>
-      <c r="AF51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG51" s="2"/>
-      <c r="AH51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE52" s="2"/>
-      <c r="AF52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG52" s="2"/>
-      <c r="AH52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AL52" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL52">
+  <autoFilter ref="A1:AL50">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6761,7 +6494,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI49">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
